--- a/data/trans_orig/IP07C18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C18-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE4C7EF-F7E7-4517-949D-DCB6F4591006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5004D63-4641-4B9B-8DFB-B3F2ACD609DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A948F441-24F3-4CF7-8969-92F10C148825}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{18E00C17-152B-44C2-8296-8674FD147645}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,210 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
     <t>20,17%</t>
   </si>
   <si>
@@ -118,33 +301,6 @@
     <t>20,42%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
     <t>39,61%</t>
   </si>
   <si>
@@ -172,33 +328,6 @@
     <t>43,35%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
     <t>34,32%</t>
   </si>
   <si>
@@ -226,133 +355,52 @@
     <t>41,05%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>19,39%</t>
@@ -382,33 +430,6 @@
     <t>19,49%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
     <t>39,25%</t>
   </si>
   <si>
@@ -436,27 +457,6 @@
     <t>42,61%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
     <t>35,53%</t>
   </si>
   <si>
@@ -487,6 +487,171 @@
     <t>Menores según frecuencia de llevarse bien con los profesores en 2012 (Tasa respuesta: 43,54%)</t>
   </si>
   <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
     <t>9,25%</t>
   </si>
   <si>
@@ -514,30 +679,6 @@
     <t>12,67%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
     <t>36,84%</t>
   </si>
   <si>
@@ -565,30 +706,6 @@
     <t>37,83%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
     <t>49,43%</t>
   </si>
   <si>
@@ -616,121 +733,55 @@
     <t>55,01%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>8,87%</t>
@@ -760,30 +811,6 @@
     <t>11,51%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
     <t>34,81%</t>
   </si>
   <si>
@@ -808,33 +835,6 @@
     <t>35,51%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
     <t>52,05%</t>
   </si>
   <si>
@@ -865,6 +865,159 @@
     <t>Menores según frecuencia de llevarse bien con los profesores en 2015 (Tasa respuesta: 45,48%)</t>
   </si>
   <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
     <t>13,39%</t>
   </si>
   <si>
@@ -892,27 +1045,6 @@
     <t>14,04%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
     <t>39,82%</t>
   </si>
   <si>
@@ -937,33 +1069,6 @@
     <t>35,58%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
     <t>43,49%</t>
   </si>
   <si>
@@ -991,109 +1096,31 @@
     <t>50,06%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>12,05%</t>
@@ -1114,18 +1141,6 @@
     <t>12,3%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
     <t>34,43%</t>
   </si>
   <si>
@@ -1148,21 +1163,6 @@
   </si>
   <si>
     <t>40,91%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
   </si>
   <si>
     <t>46,64%</t>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F367A23C-D329-4FED-9EED-624955663BC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD240A63-FBA1-41A9-A2CB-D8258D446A74}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1968,10 +1968,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>50229</v>
+        <v>2462</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1983,10 +1983,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>36607</v>
+        <v>720</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -1998,10 +1998,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>86836</v>
+        <v>3182</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -2019,49 +2019,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>8163</v>
+        <v>820</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>671</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2614</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1491</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>16</v>
-      </c>
-      <c r="N11" s="7">
-        <v>10777</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,49 +2070,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7">
-        <v>98645</v>
+        <v>9504</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="7">
+        <v>9</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5919</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7">
-        <v>140</v>
-      </c>
-      <c r="I12" s="7">
-        <v>95457</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>23</v>
+      </c>
+      <c r="N12" s="7">
+        <v>15423</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>288</v>
-      </c>
-      <c r="N12" s="7">
-        <v>194101</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,49 +2121,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>6545</v>
+        <v>22300</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="7">
+        <v>28</v>
+      </c>
+      <c r="I13" s="7">
+        <v>18856</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8234</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>62</v>
+      </c>
+      <c r="N13" s="7">
+        <v>41156</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="M13" s="7">
-        <v>22</v>
-      </c>
-      <c r="N13" s="7">
-        <v>14779</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,49 +2172,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
-        <v>85488</v>
+        <v>23983</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="7">
+        <v>34</v>
+      </c>
+      <c r="I14" s="7">
+        <v>22716</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="7">
-        <v>146</v>
-      </c>
-      <c r="I14" s="7">
-        <v>97580</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>71</v>
+      </c>
+      <c r="N14" s="7">
+        <v>46699</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="M14" s="7">
-        <v>274</v>
-      </c>
-      <c r="N14" s="7">
-        <v>183068</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,102 +2223,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>374</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>249071</v>
+        <v>59069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>357</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>240492</v>
+        <v>48882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>731</v>
+        <v>163</v>
       </c>
       <c r="N15" s="7">
-        <v>489562</v>
+        <v>107951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>9504</v>
+        <v>6545</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>8234</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5919</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>22</v>
+      </c>
+      <c r="N16" s="7">
+        <v>14779</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="M16" s="7">
-        <v>23</v>
-      </c>
-      <c r="N16" s="7">
-        <v>15423</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,49 +2327,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>820</v>
+        <v>8163</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2614</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>671</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="7">
+        <v>16</v>
+      </c>
+      <c r="N17" s="7">
+        <v>10777</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1491</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,49 +2378,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D18" s="7">
-        <v>22300</v>
+        <v>50229</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>55</v>
+      </c>
+      <c r="I18" s="7">
+        <v>36607</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="7">
-        <v>28</v>
-      </c>
-      <c r="I18" s="7">
-        <v>18856</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>131</v>
+      </c>
+      <c r="N18" s="7">
+        <v>86836</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="7">
-        <v>62</v>
-      </c>
-      <c r="N18" s="7">
-        <v>41156</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,40 +2429,40 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="D19" s="7">
-        <v>2462</v>
+        <v>98645</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>140</v>
+      </c>
+      <c r="I19" s="7">
+        <v>95457</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>720</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>92</v>
       </c>
       <c r="M19" s="7">
-        <v>5</v>
+        <v>288</v>
       </c>
       <c r="N19" s="7">
-        <v>3182</v>
+        <v>194101</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>93</v>
@@ -2480,10 +2480,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="D20" s="7">
-        <v>23983</v>
+        <v>85488</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>96</v>
@@ -2495,10 +2495,10 @@
         <v>98</v>
       </c>
       <c r="H20" s="7">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="I20" s="7">
-        <v>22716</v>
+        <v>97580</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>99</v>
@@ -2510,10 +2510,10 @@
         <v>101</v>
       </c>
       <c r="M20" s="7">
-        <v>71</v>
+        <v>274</v>
       </c>
       <c r="N20" s="7">
-        <v>46699</v>
+        <v>183068</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>102</v>
@@ -2531,49 +2531,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>374</v>
       </c>
       <c r="D21" s="7">
-        <v>59069</v>
+        <v>249071</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>357</v>
       </c>
       <c r="I21" s="7">
-        <v>48882</v>
+        <v>240492</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>163</v>
+        <v>731</v>
       </c>
       <c r="N21" s="7">
-        <v>107951</v>
+        <v>489562</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,10 +2584,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>59733</v>
+        <v>9008</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>105</v>
@@ -2599,10 +2599,10 @@
         <v>107</v>
       </c>
       <c r="H22" s="7">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>42526</v>
+        <v>8954</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>108</v>
@@ -2614,10 +2614,10 @@
         <v>110</v>
       </c>
       <c r="M22" s="7">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="N22" s="7">
-        <v>102259</v>
+        <v>17962</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>111</v>
@@ -2641,13 +2641,13 @@
         <v>8983</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2656,13 +2656,13 @@
         <v>3285</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -2671,13 +2671,13 @@
         <v>12267</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,49 +2686,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="D24" s="7">
-        <v>120944</v>
+        <v>59733</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>64</v>
+      </c>
+      <c r="I24" s="7">
+        <v>42526</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="7">
-        <v>168</v>
-      </c>
-      <c r="I24" s="7">
-        <v>114313</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>154</v>
+      </c>
+      <c r="N24" s="7">
+        <v>102259</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="7">
-        <v>350</v>
-      </c>
-      <c r="N24" s="7">
-        <v>235257</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,25 +2737,25 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="D25" s="7">
-        <v>9008</v>
+        <v>120944</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="H25" s="7">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="I25" s="7">
-        <v>8954</v>
+        <v>114313</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>133</v>
@@ -2767,10 +2767,10 @@
         <v>135</v>
       </c>
       <c r="M25" s="7">
-        <v>27</v>
+        <v>350</v>
       </c>
       <c r="N25" s="7">
-        <v>17962</v>
+        <v>235257</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>136</v>
@@ -2845,13 +2845,13 @@
         <v>308139</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>430</v>
@@ -2860,13 +2860,13 @@
         <v>289374</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>894</v>
@@ -2875,13 +2875,13 @@
         <v>597513</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2900,7 +2900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9586B72F-3C51-4CE6-A4B2-3777D6906FE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6493EB2-E99D-4E42-8FC6-A3C01824D9E6}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3290,49 +3290,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>23891</v>
+        <v>787</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1268</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H10" s="7">
-        <v>40</v>
-      </c>
-      <c r="I10" s="7">
-        <v>27419</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2055</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="M10" s="7">
-        <v>74</v>
-      </c>
-      <c r="N10" s="7">
-        <v>51310</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,49 +3341,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>4925</v>
+        <v>1451</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>675</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2126</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4861</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M11" s="7">
-        <v>14</v>
-      </c>
-      <c r="N11" s="7">
-        <v>9786</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,49 +3392,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>95161</v>
+        <v>4836</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3392</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>12</v>
+      </c>
+      <c r="N12" s="7">
+        <v>8228</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H12" s="7">
-        <v>110</v>
-      </c>
-      <c r="I12" s="7">
-        <v>75942</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M12" s="7">
-        <v>248</v>
-      </c>
-      <c r="N12" s="7">
-        <v>171104</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,49 +3443,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>6653</v>
+        <v>17562</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="7">
+        <v>25</v>
+      </c>
+      <c r="I13" s="7">
+        <v>17906</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>50</v>
+      </c>
+      <c r="N13" s="7">
+        <v>35467</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5435</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M13" s="7">
-        <v>18</v>
-      </c>
-      <c r="N13" s="7">
-        <v>12088</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,49 +3494,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="D14" s="7">
-        <v>127679</v>
+        <v>40885</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="7">
+        <v>64</v>
+      </c>
+      <c r="I14" s="7">
+        <v>45471</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>120</v>
+      </c>
+      <c r="N14" s="7">
+        <v>86356</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H14" s="7">
-        <v>182</v>
-      </c>
-      <c r="I14" s="7">
-        <v>129149</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M14" s="7">
-        <v>372</v>
-      </c>
-      <c r="N14" s="7">
-        <v>256828</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,102 +3545,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>380</v>
+        <v>91</v>
       </c>
       <c r="D15" s="7">
-        <v>258309</v>
+        <v>65520</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>346</v>
+        <v>97</v>
       </c>
       <c r="I15" s="7">
-        <v>242806</v>
+        <v>68712</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>726</v>
+        <v>188</v>
       </c>
       <c r="N15" s="7">
-        <v>501115</v>
+        <v>134233</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>4836</v>
+        <v>6653</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" s="7">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5435</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>18</v>
+      </c>
+      <c r="N16" s="7">
+        <v>12088</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3392</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M16" s="7">
-        <v>12</v>
-      </c>
-      <c r="N16" s="7">
-        <v>8228</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,49 +3649,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>1451</v>
+        <v>4925</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" s="7">
+        <v>6</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4861</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>14</v>
+      </c>
+      <c r="N17" s="7">
+        <v>9786</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>675</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2126</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,49 +3700,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D18" s="7">
-        <v>17562</v>
+        <v>23891</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H18" s="7">
+        <v>40</v>
+      </c>
+      <c r="I18" s="7">
+        <v>27419</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" s="7">
-        <v>25</v>
-      </c>
-      <c r="I18" s="7">
-        <v>17906</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>74</v>
+      </c>
+      <c r="N18" s="7">
+        <v>51310</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="M18" s="7">
-        <v>50</v>
-      </c>
-      <c r="N18" s="7">
-        <v>35467</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,40 +3751,40 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="D19" s="7">
-        <v>787</v>
+        <v>95161</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>110</v>
+      </c>
+      <c r="I19" s="7">
+        <v>75942</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1268</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>218</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>248</v>
       </c>
       <c r="N19" s="7">
-        <v>2055</v>
+        <v>171104</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>219</v>
@@ -3802,10 +3802,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D20" s="7">
-        <v>40885</v>
+        <v>127679</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>222</v>
@@ -3817,10 +3817,10 @@
         <v>224</v>
       </c>
       <c r="H20" s="7">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="I20" s="7">
-        <v>45471</v>
+        <v>129149</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>225</v>
@@ -3832,10 +3832,10 @@
         <v>227</v>
       </c>
       <c r="M20" s="7">
-        <v>120</v>
+        <v>372</v>
       </c>
       <c r="N20" s="7">
-        <v>86356</v>
+        <v>256828</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>228</v>
@@ -3853,49 +3853,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>91</v>
+        <v>380</v>
       </c>
       <c r="D21" s="7">
-        <v>65520</v>
+        <v>258309</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>97</v>
+        <v>346</v>
       </c>
       <c r="I21" s="7">
-        <v>68712</v>
+        <v>242806</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>188</v>
+        <v>726</v>
       </c>
       <c r="N21" s="7">
-        <v>134233</v>
+        <v>501115</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,10 +3906,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>28727</v>
+        <v>7439</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>231</v>
@@ -3921,10 +3921,10 @@
         <v>233</v>
       </c>
       <c r="H22" s="7">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>30811</v>
+        <v>6703</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>234</v>
@@ -3936,10 +3936,10 @@
         <v>236</v>
       </c>
       <c r="M22" s="7">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>59538</v>
+        <v>14143</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>237</v>
@@ -3978,7 +3978,7 @@
         <v>5536</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>243</v>
@@ -4008,10 +4008,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="D24" s="7">
-        <v>112723</v>
+        <v>28727</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>248</v>
@@ -4020,37 +4020,37 @@
         <v>249</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="H24" s="7">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="I24" s="7">
-        <v>93848</v>
+        <v>30811</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" s="7">
-        <v>298</v>
+        <v>86</v>
       </c>
       <c r="N24" s="7">
-        <v>206571</v>
+        <v>59538</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,25 +4059,25 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="D25" s="7">
-        <v>7439</v>
+        <v>112723</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>258</v>
+        <v>133</v>
       </c>
       <c r="H25" s="7">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="I25" s="7">
-        <v>6703</v>
+        <v>93848</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>259</v>
@@ -4089,10 +4089,10 @@
         <v>261</v>
       </c>
       <c r="M25" s="7">
-        <v>21</v>
+        <v>298</v>
       </c>
       <c r="N25" s="7">
-        <v>14143</v>
+        <v>206571</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>262</v>
@@ -4167,13 +4167,13 @@
         <v>323829</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>443</v>
@@ -4182,13 +4182,13 @@
         <v>311518</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>914</v>
@@ -4197,13 +4197,13 @@
         <v>635347</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4222,7 +4222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6441DCD8-F1ED-4B71-8AC1-BCFA9BFE8F64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD027F8-F0A9-4C3E-911D-5B745C39A293}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4612,49 +4612,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>36419</v>
+        <v>700</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>564</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="H10" s="7">
-        <v>34</v>
-      </c>
-      <c r="I10" s="7">
-        <v>23109</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1264</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="M10" s="7">
-        <v>83</v>
-      </c>
-      <c r="N10" s="7">
-        <v>59528</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,49 +4663,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>4401</v>
+        <v>1429</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>6417</v>
+        <v>1229</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>10818</v>
+        <v>2658</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>106</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,49 +4714,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>108274</v>
+        <v>5502</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H12" s="7">
+        <v>11</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6630</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M12" s="7">
+        <v>19</v>
+      </c>
+      <c r="N12" s="7">
+        <v>12132</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H12" s="7">
-        <v>139</v>
-      </c>
-      <c r="I12" s="7">
-        <v>98128</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M12" s="7">
-        <v>286</v>
-      </c>
-      <c r="N12" s="7">
-        <v>206402</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,49 +4765,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>4551</v>
+        <v>24312</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H13" s="7">
+        <v>46</v>
+      </c>
+      <c r="I13" s="7">
+        <v>30957</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M13" s="7">
+        <v>80</v>
+      </c>
+      <c r="N13" s="7">
+        <v>55269</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2081</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M13" s="7">
-        <v>9</v>
-      </c>
-      <c r="N13" s="7">
-        <v>6632</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,49 +4816,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7">
-        <v>118266</v>
+        <v>43923</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H14" s="7">
+        <v>68</v>
+      </c>
+      <c r="I14" s="7">
+        <v>45865</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M14" s="7">
+        <v>133</v>
+      </c>
+      <c r="N14" s="7">
+        <v>89788</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H14" s="7">
-        <v>176</v>
-      </c>
-      <c r="I14" s="7">
-        <v>128286</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M14" s="7">
-        <v>336</v>
-      </c>
-      <c r="N14" s="7">
-        <v>246552</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,102 +4867,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>368</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>271910</v>
+        <v>75866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>361</v>
+        <v>128</v>
       </c>
       <c r="I15" s="7">
-        <v>258022</v>
+        <v>85245</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>729</v>
+        <v>238</v>
       </c>
       <c r="N15" s="7">
-        <v>529932</v>
+        <v>161111</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>5502</v>
+        <v>4551</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2081</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M16" s="7">
+        <v>9</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6632</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H16" s="7">
-        <v>11</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6630</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M16" s="7">
-        <v>19</v>
-      </c>
-      <c r="N16" s="7">
-        <v>12132</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,49 +4971,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>1429</v>
+        <v>4401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H17" s="7">
+        <v>9</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6417</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M17" s="7">
+        <v>15</v>
+      </c>
+      <c r="N17" s="7">
+        <v>10818</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1229</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2658</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,49 +5022,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>49</v>
+      </c>
+      <c r="D18" s="7">
+        <v>36419</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H18" s="7">
         <v>34</v>
       </c>
-      <c r="D18" s="7">
-        <v>24312</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="I18" s="7">
+        <v>23109</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="H18" s="7">
-        <v>46</v>
-      </c>
-      <c r="I18" s="7">
-        <v>30957</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>83</v>
+      </c>
+      <c r="N18" s="7">
+        <v>59528</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="M18" s="7">
-        <v>80</v>
-      </c>
-      <c r="N18" s="7">
-        <v>55269</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,49 +5073,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D19" s="7">
-        <v>700</v>
+        <v>108274</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H19" s="7">
+        <v>139</v>
+      </c>
+      <c r="I19" s="7">
+        <v>98128</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>564</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>286</v>
       </c>
       <c r="N19" s="7">
-        <v>1264</v>
+        <v>206402</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>341</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>342</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>342</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,10 +5124,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="D20" s="7">
-        <v>43923</v>
+        <v>118266</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>343</v>
@@ -5139,10 +5139,10 @@
         <v>345</v>
       </c>
       <c r="H20" s="7">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="I20" s="7">
-        <v>45865</v>
+        <v>128286</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>346</v>
@@ -5154,10 +5154,10 @@
         <v>348</v>
       </c>
       <c r="M20" s="7">
-        <v>133</v>
+        <v>336</v>
       </c>
       <c r="N20" s="7">
-        <v>89788</v>
+        <v>246552</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>349</v>
@@ -5175,49 +5175,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>368</v>
       </c>
       <c r="D21" s="7">
-        <v>75866</v>
+        <v>271910</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>128</v>
+        <v>361</v>
       </c>
       <c r="I21" s="7">
-        <v>85245</v>
+        <v>258022</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>238</v>
+        <v>729</v>
       </c>
       <c r="N21" s="7">
-        <v>161111</v>
+        <v>529932</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,10 +5228,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>41921</v>
+        <v>5251</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>352</v>
@@ -5240,37 +5240,37 @@
         <v>353</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2645</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="H22" s="7">
-        <v>45</v>
-      </c>
-      <c r="I22" s="7">
-        <v>29739</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="M22" s="7">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="N22" s="7">
-        <v>71660</v>
+        <v>7896</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,13 +5285,13 @@
         <v>5830</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -5300,13 +5300,13 @@
         <v>7646</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -5315,13 +5315,13 @@
         <v>13476</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5330,13 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="D24" s="7">
-        <v>132586</v>
+        <v>41921</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>85</v>
+        <v>361</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>362</v>
@@ -5345,34 +5345,34 @@
         <v>363</v>
       </c>
       <c r="H24" s="7">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="I24" s="7">
-        <v>129084</v>
+        <v>29739</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>364</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" s="7">
+        <v>102</v>
+      </c>
+      <c r="N24" s="7">
+        <v>71660</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="M24" s="7">
-        <v>366</v>
-      </c>
-      <c r="N24" s="7">
-        <v>261671</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,46 +5381,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="D25" s="7">
-        <v>5251</v>
+        <v>132586</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H25" s="7">
+        <v>185</v>
+      </c>
+      <c r="I25" s="7">
+        <v>129084</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2645</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>366</v>
+      </c>
+      <c r="N25" s="7">
+        <v>261671</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="M25" s="7">
-        <v>11</v>
-      </c>
-      <c r="N25" s="7">
-        <v>7896</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>374</v>
@@ -5489,13 +5489,13 @@
         <v>347776</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>489</v>
@@ -5504,13 +5504,13 @@
         <v>343266</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>967</v>
@@ -5519,13 +5519,13 @@
         <v>691043</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C18-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5004D63-4641-4B9B-8DFB-B3F2ACD609DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFDC8FCD-75D9-4D89-91A9-2C5D2EBDDD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{18E00C17-152B-44C2-8296-8674FD147645}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5322D98-9AF0-415D-A6EA-549A5D076BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="400">
   <si>
     <t>Menores según frecuencia de llevarse bien con los profesores en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -67,1126 +67,1177 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,77%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con los profesores en 2012 (Tasa respuesta: 43,54%)</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con los profesores en 2015 (Tasa respuesta: 45,48%)</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
   </si>
   <si>
     <t>38,12%</t>
   </si>
   <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con los profesores en 2012 (Tasa respuesta: 43,54%)</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con los profesores en 2015 (Tasa respuesta: 45,48%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1248,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1293,39 +1344,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1377,7 +1428,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1488,13 +1539,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1503,6 +1547,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1567,19 +1618,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD240A63-FBA1-41A9-A2CB-D8258D446A74}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BEB2B9-2059-4C8D-9FD0-F653D8EF6CA1}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1968,49 +2039,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3182</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,49 +2084,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>671</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,49 +2129,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>14</v>
-      </c>
-      <c r="D12" s="7">
-        <v>9504</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>23</v>
-      </c>
-      <c r="N12" s="7">
-        <v>15423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,49 +2174,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>34</v>
-      </c>
-      <c r="D13" s="7">
-        <v>22300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18856</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
-      </c>
-      <c r="N13" s="7">
-        <v>41156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,49 +2219,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
-      </c>
-      <c r="D14" s="7">
-        <v>23983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>34</v>
-      </c>
-      <c r="I14" s="7">
-        <v>22716</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>71</v>
-      </c>
-      <c r="N14" s="7">
-        <v>46699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,102 +2264,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>163</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="D16" s="7">
-        <v>6545</v>
+        <v>53671</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I16" s="7">
-        <v>8234</v>
+        <v>52683</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="N16" s="7">
-        <v>14779</v>
+        <v>106355</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,49 +2362,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D17" s="7">
-        <v>8163</v>
+        <v>44910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="I17" s="7">
-        <v>2614</v>
+        <v>43603</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="N17" s="7">
-        <v>10777</v>
+        <v>88513</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,49 +2413,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7">
-        <v>50229</v>
+        <v>19706</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I18" s="7">
-        <v>36607</v>
+        <v>12764</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="N18" s="7">
-        <v>86836</v>
+        <v>32469</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,49 +2464,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>98645</v>
+        <v>1514</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>95457</v>
+        <v>1207</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>288</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>194101</v>
+        <v>2722</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,49 +2515,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>85488</v>
+        <v>3680</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>97580</v>
+        <v>1453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
-        <v>274</v>
+        <v>8</v>
       </c>
       <c r="N20" s="7">
-        <v>183068</v>
+        <v>5133</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,102 +2566,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="D21" s="7">
-        <v>249071</v>
+        <v>123481</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>357</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>240492</v>
+        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>731</v>
+        <v>354</v>
       </c>
       <c r="N21" s="7">
-        <v>489562</v>
+        <v>235192</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="D22" s="7">
-        <v>9008</v>
+        <v>55800</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="H22" s="7">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="I22" s="7">
-        <v>8954</v>
+        <v>67613</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="N22" s="7">
-        <v>17962</v>
+        <v>123412</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,49 +2670,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="D23" s="7">
-        <v>8983</v>
+        <v>76034</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="I23" s="7">
-        <v>3285</v>
+        <v>70710</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="M23" s="7">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="N23" s="7">
-        <v>12267</v>
+        <v>146744</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,49 +2721,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D24" s="7">
-        <v>59733</v>
+        <v>40028</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="H24" s="7">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="I24" s="7">
-        <v>42526</v>
+        <v>29762</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="M24" s="7">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="N24" s="7">
-        <v>102259</v>
+        <v>69790</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,49 +2772,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>120944</v>
+        <v>7468</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="H25" s="7">
-        <v>168</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>114313</v>
+        <v>2077</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="M25" s="7">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="N25" s="7">
-        <v>235257</v>
+        <v>9546</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,49 +2823,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>109471</v>
+        <v>5328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="H26" s="7">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="I26" s="7">
-        <v>120296</v>
+        <v>7501</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="M26" s="7">
-        <v>345</v>
+        <v>19</v>
       </c>
       <c r="N26" s="7">
-        <v>229767</v>
+        <v>12829</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,55 +2874,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>278</v>
+      </c>
+      <c r="D27" s="7">
+        <v>184658</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
+        <v>262</v>
+      </c>
+      <c r="I27" s="7">
+        <v>177663</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="7">
+        <v>540</v>
+      </c>
+      <c r="N27" s="7">
+        <v>362321</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>165</v>
+      </c>
+      <c r="D28" s="7">
+        <v>109471</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="7">
+        <v>180</v>
+      </c>
+      <c r="I28" s="7">
+        <v>120296</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M28" s="7">
+        <v>345</v>
+      </c>
+      <c r="N28" s="7">
+        <v>229767</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>182</v>
+      </c>
+      <c r="D29" s="7">
+        <v>120944</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="7">
+        <v>168</v>
+      </c>
+      <c r="I29" s="7">
+        <v>114313</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" s="7">
+        <v>350</v>
+      </c>
+      <c r="N29" s="7">
+        <v>235257</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>90</v>
+      </c>
+      <c r="D30" s="7">
+        <v>59733</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="7">
+        <v>64</v>
+      </c>
+      <c r="I30" s="7">
+        <v>42526</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M30" s="7">
+        <v>154</v>
+      </c>
+      <c r="N30" s="7">
+        <v>102259</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>13</v>
+      </c>
+      <c r="D31" s="7">
+        <v>8983</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3285</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M31" s="7">
+        <v>18</v>
+      </c>
+      <c r="N31" s="7">
+        <v>12267</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7">
+        <v>9008</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="7">
+        <v>13</v>
+      </c>
+      <c r="I32" s="7">
+        <v>8954</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M32" s="7">
+        <v>27</v>
+      </c>
+      <c r="N32" s="7">
+        <v>17962</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>464</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>308139</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>430</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>289374</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="7">
         <v>894</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>597513</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>59</v>
+      <c r="O33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2900,8 +3249,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6493EB2-E99D-4E42-8FC6-A3C01824D9E6}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30AAB02-ACF3-4AB5-800A-069F2A4DA911}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2917,7 +3266,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3290,49 +3639,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>787</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,49 +3684,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,49 +3729,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4836</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
-      </c>
-      <c r="N12" s="7">
-        <v>8228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,49 +3774,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
-      </c>
-      <c r="D13" s="7">
-        <v>17562</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
-      </c>
-      <c r="I13" s="7">
-        <v>17906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>50</v>
-      </c>
-      <c r="N13" s="7">
-        <v>35467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,49 +3819,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>56</v>
-      </c>
-      <c r="D14" s="7">
-        <v>40885</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>64</v>
-      </c>
-      <c r="I14" s="7">
-        <v>45471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>120</v>
-      </c>
-      <c r="N14" s="7">
-        <v>86356</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,102 +3864,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>91</v>
-      </c>
-      <c r="D15" s="7">
-        <v>65520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>97</v>
-      </c>
-      <c r="I15" s="7">
-        <v>68712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>188</v>
-      </c>
-      <c r="N15" s="7">
-        <v>134233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="D16" s="7">
-        <v>6653</v>
+        <v>92579</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="I16" s="7">
-        <v>5435</v>
+        <v>94985</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="M16" s="7">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="N16" s="7">
-        <v>12088</v>
+        <v>187563</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,49 +3962,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D17" s="7">
-        <v>4925</v>
+        <v>41730</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="I17" s="7">
-        <v>4861</v>
+        <v>38873</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="N17" s="7">
-        <v>9786</v>
+        <v>80604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,49 +4013,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>23891</v>
+        <v>11809</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="H18" s="7">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I18" s="7">
-        <v>27419</v>
+        <v>10621</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="M18" s="7">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="N18" s="7">
-        <v>51310</v>
+        <v>22430</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,49 +4064,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>95161</v>
+        <v>2797</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="H19" s="7">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>75942</v>
+        <v>2884</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="M19" s="7">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>171104</v>
+        <v>5681</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,49 +4115,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4262</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="7">
-        <v>127679</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="H20" s="7">
-        <v>182</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>129149</v>
+        <v>1947</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="M20" s="7">
-        <v>372</v>
+        <v>9</v>
       </c>
       <c r="N20" s="7">
-        <v>256828</v>
+        <v>6209</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,102 +4166,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="D21" s="7">
-        <v>258309</v>
+        <v>153178</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>346</v>
+        <v>213</v>
       </c>
       <c r="I21" s="7">
-        <v>242806</v>
+        <v>149309</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>726</v>
+        <v>433</v>
       </c>
       <c r="N21" s="7">
-        <v>501115</v>
+        <v>302487</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D22" s="7">
-        <v>7439</v>
+        <v>75985</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="H22" s="7">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="I22" s="7">
-        <v>6703</v>
+        <v>79636</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="M22" s="7">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="N22" s="7">
-        <v>14143</v>
+        <v>155622</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,49 +4270,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="D23" s="7">
-        <v>6376</v>
+        <v>70993</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="H23" s="7">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="I23" s="7">
-        <v>5536</v>
+        <v>54975</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="M23" s="7">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="N23" s="7">
-        <v>11911</v>
+        <v>125968</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,49 +4321,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D24" s="7">
-        <v>28727</v>
+        <v>16918</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="H24" s="7">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I24" s="7">
-        <v>30811</v>
+        <v>20190</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="M24" s="7">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="N24" s="7">
-        <v>59538</v>
+        <v>37108</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,49 +4372,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>112723</v>
+        <v>3578</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="H25" s="7">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>93848</v>
+        <v>2652</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>260</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="M25" s="7">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="N25" s="7">
-        <v>206571</v>
+        <v>6230</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,49 +4423,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>246</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>168564</v>
+        <v>3177</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="H26" s="7">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="I26" s="7">
-        <v>174620</v>
+        <v>4757</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="M26" s="7">
-        <v>492</v>
+        <v>12</v>
       </c>
       <c r="N26" s="7">
-        <v>343184</v>
+        <v>7934</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,55 +4474,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>251</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170651</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
+        <v>230</v>
+      </c>
+      <c r="I27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="7">
+        <v>481</v>
+      </c>
+      <c r="N27" s="7">
+        <v>332861</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>246</v>
+      </c>
+      <c r="D28" s="7">
+        <v>168564</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="7">
+        <v>246</v>
+      </c>
+      <c r="I28" s="7">
+        <v>174620</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M28" s="7">
+        <v>492</v>
+      </c>
+      <c r="N28" s="7">
+        <v>343184</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>163</v>
+      </c>
+      <c r="D29" s="7">
+        <v>112723</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H29" s="7">
+        <v>135</v>
+      </c>
+      <c r="I29" s="7">
+        <v>93848</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" s="7">
+        <v>298</v>
+      </c>
+      <c r="N29" s="7">
+        <v>206571</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>41</v>
+      </c>
+      <c r="D30" s="7">
+        <v>28727</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H30" s="7">
+        <v>45</v>
+      </c>
+      <c r="I30" s="7">
+        <v>30811</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M30" s="7">
+        <v>86</v>
+      </c>
+      <c r="N30" s="7">
+        <v>59538</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6376</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H31" s="7">
+        <v>7</v>
+      </c>
+      <c r="I31" s="7">
+        <v>5536</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M31" s="7">
+        <v>17</v>
+      </c>
+      <c r="N31" s="7">
+        <v>11911</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>11</v>
+      </c>
+      <c r="D32" s="7">
+        <v>7439</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H32" s="7">
+        <v>10</v>
+      </c>
+      <c r="I32" s="7">
+        <v>6703</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" s="7">
+        <v>21</v>
+      </c>
+      <c r="N32" s="7">
+        <v>14143</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>471</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>323829</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>443</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>311518</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="7">
         <v>914</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>635347</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>59</v>
+      <c r="O33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4222,8 +4849,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD027F8-F0A9-4C3E-911D-5B745C39A293}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0432EB0E-D241-4D74-A977-F7A4BD6F15F6}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4239,7 +4866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4612,49 +5239,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,49 +5284,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2658</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,49 +5329,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5502</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>11</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>19</v>
-      </c>
-      <c r="N12" s="7">
-        <v>12132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,49 +5374,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>34</v>
-      </c>
-      <c r="D13" s="7">
-        <v>24312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>46</v>
-      </c>
-      <c r="I13" s="7">
-        <v>30957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>80</v>
-      </c>
-      <c r="N13" s="7">
-        <v>55269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,49 +5419,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>65</v>
-      </c>
-      <c r="D14" s="7">
-        <v>43923</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>68</v>
-      </c>
-      <c r="I14" s="7">
-        <v>45865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>133</v>
-      </c>
-      <c r="N14" s="7">
-        <v>89788</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,102 +5464,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>128</v>
-      </c>
-      <c r="I15" s="7">
-        <v>85245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>238</v>
-      </c>
-      <c r="N15" s="7">
-        <v>161111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="D16" s="7">
-        <v>4551</v>
+        <v>95469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="I16" s="7">
-        <v>2081</v>
+        <v>94728</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>271</v>
       </c>
       <c r="N16" s="7">
-        <v>6632</v>
+        <v>190197</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,49 +5562,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D17" s="7">
-        <v>4401</v>
+        <v>64859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="I17" s="7">
-        <v>6417</v>
+        <v>69865</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="N17" s="7">
-        <v>10818</v>
+        <v>134724</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,49 +5613,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>36419</v>
+        <v>12533</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>23109</v>
+        <v>9595</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="N18" s="7">
-        <v>59528</v>
+        <v>22128</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,49 +5664,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>108274</v>
+        <v>2937</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>98128</v>
+        <v>3708</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
-        <v>286</v>
+        <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>206402</v>
+        <v>6644</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>341</v>
+        <v>228</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,49 +5715,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>118266</v>
+        <v>2099</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>128286</v>
+        <v>564</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>347</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
-        <v>336</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>246552</v>
+        <v>2663</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,102 +5766,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>368</v>
+        <v>249</v>
       </c>
       <c r="D21" s="7">
-        <v>271910</v>
+        <v>177898</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="I21" s="7">
-        <v>258022</v>
+        <v>178459</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>729</v>
+        <v>504</v>
       </c>
       <c r="N21" s="7">
-        <v>529932</v>
+        <v>356357</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D22" s="7">
-        <v>5251</v>
+        <v>66720</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="I22" s="7">
-        <v>2645</v>
+        <v>79422</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="N22" s="7">
-        <v>7896</v>
+        <v>146142</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,49 +5870,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D23" s="7">
-        <v>5830</v>
+        <v>67727</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="H23" s="7">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="I23" s="7">
-        <v>7646</v>
+        <v>59220</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="N23" s="7">
-        <v>13476</v>
+        <v>126947</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>68</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>149</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>111</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,49 +5921,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D24" s="7">
-        <v>41921</v>
+        <v>29387</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="H24" s="7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I24" s="7">
-        <v>29739</v>
+        <v>20145</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>280</v>
+        <v>343</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>207</v>
+        <v>344</v>
       </c>
       <c r="M24" s="7">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="N24" s="7">
-        <v>71660</v>
+        <v>49532</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,49 +5972,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>132586</v>
+        <v>2893</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>47</v>
+        <v>320</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="H25" s="7">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>129084</v>
+        <v>3939</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="M25" s="7">
-        <v>366</v>
+        <v>10</v>
       </c>
       <c r="N25" s="7">
-        <v>261671</v>
+        <v>6832</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>372</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>374</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,49 +6023,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>225</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>162189</v>
+        <v>3152</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>375</v>
+        <v>228</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>376</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
-        <v>244</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>174150</v>
+        <v>2081</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
-        <v>469</v>
+        <v>7</v>
       </c>
       <c r="N26" s="7">
-        <v>336340</v>
+        <v>5233</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,55 +6074,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>229</v>
+      </c>
+      <c r="D27" s="7">
+        <v>169879</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="7">
+        <v>463</v>
+      </c>
+      <c r="N27" s="7">
+        <v>334686</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>225</v>
+      </c>
+      <c r="D28" s="7">
+        <v>162189</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H28" s="7">
+        <v>244</v>
+      </c>
+      <c r="I28" s="7">
+        <v>174150</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M28" s="7">
+        <v>469</v>
+      </c>
+      <c r="N28" s="7">
+        <v>336340</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>181</v>
+      </c>
+      <c r="D29" s="7">
+        <v>132586</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H29" s="7">
+        <v>185</v>
+      </c>
+      <c r="I29" s="7">
+        <v>129084</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="M29" s="7">
+        <v>366</v>
+      </c>
+      <c r="N29" s="7">
+        <v>261671</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>57</v>
+      </c>
+      <c r="D30" s="7">
+        <v>41921</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H30" s="7">
+        <v>45</v>
+      </c>
+      <c r="I30" s="7">
+        <v>29739</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M30" s="7">
+        <v>102</v>
+      </c>
+      <c r="N30" s="7">
+        <v>71660</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5830</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H31" s="7">
+        <v>11</v>
+      </c>
+      <c r="I31" s="7">
+        <v>7646</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M31" s="7">
+        <v>19</v>
+      </c>
+      <c r="N31" s="7">
+        <v>13476</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>7</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5251</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2645</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="M32" s="7">
+        <v>11</v>
+      </c>
+      <c r="N32" s="7">
+        <v>7896</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>478</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>347776</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>489</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>343266</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="7">
         <v>967</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>691043</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>59</v>
+      <c r="O33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C18-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFDC8FCD-75D9-4D89-91A9-2C5D2EBDDD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56950D5A-8FA4-487A-B366-539915C6CB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5322D98-9AF0-415D-A6EA-549A5D076BCB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03EFDF47-6845-4FC7-9C8B-D15F155FCD43}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="396">
   <si>
     <t>Menores según frecuencia de llevarse bien con los profesores en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -97,82 +97,82 @@
     <t>43,47%</t>
   </si>
   <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
   </si>
   <si>
     <t>45,22%</t>
   </si>
   <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
   </si>
   <si>
     <t>36,37%</t>
   </si>
   <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
   </si>
   <si>
     <t>39,03%</t>
   </si>
   <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
   </si>
   <si>
     <t>37,63%</t>
   </si>
   <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
   </si>
   <si>
     <t>15,96%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
   </si>
   <si>
     <t>1,23%</t>
@@ -181,1063 +181,1051 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con los profesores en 2012 (Tasa respuesta: 43,54%)</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con los profesores en 2016 (Tasa respuesta: 45,48%)</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con los profesores en 2012 (Tasa respuesta: 43,54%)</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con los profesores en 2015 (Tasa respuesta: 45,48%)</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BEB2B9-2059-4C8D-9FD0-F653D8EF6CA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28576CE4-989D-46C7-A79D-9FE4D9D56262}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2784,7 +2772,7 @@
         <v>91</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2793,13 +2781,13 @@
         <v>2077</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -2808,13 +2796,13 @@
         <v>9546</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2817,13 @@
         <v>5328</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -2844,13 +2832,13 @@
         <v>7501</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -2859,13 +2847,13 @@
         <v>12829</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2921,13 @@
         <v>109471</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H28" s="7">
         <v>180</v>
@@ -2948,13 +2936,13 @@
         <v>120296</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M28" s="7">
         <v>345</v>
@@ -2963,13 +2951,13 @@
         <v>229767</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +2972,13 @@
         <v>120944</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H29" s="7">
         <v>168</v>
@@ -2999,13 +2987,13 @@
         <v>114313</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M29" s="7">
         <v>350</v>
@@ -3014,13 +3002,13 @@
         <v>235257</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,13 +3023,13 @@
         <v>59733</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -3050,13 +3038,13 @@
         <v>42526</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M30" s="7">
         <v>154</v>
@@ -3065,13 +3053,13 @@
         <v>102259</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3074,13 @@
         <v>8983</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -3101,13 +3089,13 @@
         <v>3285</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -3116,13 +3104,13 @@
         <v>12267</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3125,13 @@
         <v>9008</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -3152,13 +3140,13 @@
         <v>8954</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M32" s="7">
         <v>27</v>
@@ -3167,13 +3155,13 @@
         <v>17962</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,7 +3217,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3249,7 +3237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30AAB02-ACF3-4AB5-800A-069F2A4DA911}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0FBB8F-DDD6-4D6F-BF82-E07692CA2A8C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3266,7 +3254,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3917,13 +3905,13 @@
         <v>92579</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
         <v>135</v>
@@ -3932,13 +3920,13 @@
         <v>94985</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>268</v>
@@ -3947,13 +3935,13 @@
         <v>187563</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +3956,13 @@
         <v>41730</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -3983,13 +3971,13 @@
         <v>38873</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -3998,13 +3986,13 @@
         <v>80604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4007,13 @@
         <v>11809</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -4034,13 +4022,13 @@
         <v>10621</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -4049,13 +4037,13 @@
         <v>22430</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4058,13 @@
         <v>2797</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4085,13 +4073,13 @@
         <v>2884</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4100,13 +4088,13 @@
         <v>5681</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4109,13 @@
         <v>4262</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4139,10 +4127,10 @@
         <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -4151,13 +4139,13 @@
         <v>6209</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4213,13 @@
         <v>75985</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H22" s="7">
         <v>111</v>
@@ -4240,13 +4228,13 @@
         <v>79636</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
         <v>224</v>
@@ -4255,13 +4243,13 @@
         <v>155622</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4264,13 @@
         <v>70993</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H23" s="7">
         <v>80</v>
@@ -4291,13 +4279,13 @@
         <v>54975</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M23" s="7">
         <v>183</v>
@@ -4306,13 +4294,13 @@
         <v>125968</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4315,13 @@
         <v>16918</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -4342,13 +4330,13 @@
         <v>20190</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M24" s="7">
         <v>53</v>
@@ -4357,13 +4345,13 @@
         <v>37108</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4366,13 @@
         <v>3578</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4393,13 +4381,13 @@
         <v>2652</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4408,13 +4396,13 @@
         <v>6230</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4417,13 @@
         <v>3177</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -4444,13 +4432,13 @@
         <v>4757</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -4459,13 +4447,13 @@
         <v>7934</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4521,13 @@
         <v>168564</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H28" s="7">
         <v>246</v>
@@ -4548,13 +4536,13 @@
         <v>174620</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M28" s="7">
         <v>492</v>
@@ -4563,13 +4551,13 @@
         <v>343184</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4572,13 @@
         <v>112723</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H29" s="7">
         <v>135</v>
@@ -4599,13 +4587,13 @@
         <v>93848</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M29" s="7">
         <v>298</v>
@@ -4614,13 +4602,13 @@
         <v>206571</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4623,13 @@
         <v>28727</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H30" s="7">
         <v>45</v>
@@ -4650,13 +4638,13 @@
         <v>30811</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M30" s="7">
         <v>86</v>
@@ -4665,13 +4653,13 @@
         <v>59538</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,10 +4674,10 @@
         <v>6376</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>264</v>
@@ -4704,10 +4692,10 @@
         <v>265</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c r="M31" s="7">
         <v>17</v>
@@ -4716,13 +4704,13 @@
         <v>11911</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4725,13 @@
         <v>7439</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -4752,13 +4740,13 @@
         <v>6703</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -4767,13 +4755,13 @@
         <v>14143</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,7 +4817,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4849,7 +4837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0432EB0E-D241-4D74-A977-F7A4BD6F15F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436E386C-1145-4D06-82FF-32647DF40959}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4866,7 +4854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5517,13 +5505,13 @@
         <v>95469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>135</v>
@@ -5532,13 +5520,13 @@
         <v>94728</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
         <v>271</v>
@@ -5547,13 +5535,13 @@
         <v>190197</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5556,13 @@
         <v>64859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -5583,13 +5571,13 @@
         <v>69865</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -5598,13 +5586,13 @@
         <v>134724</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5607,13 @@
         <v>12533</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -5634,13 +5622,13 @@
         <v>9595</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -5649,13 +5637,13 @@
         <v>22128</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5658,13 @@
         <v>2937</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5685,13 +5673,13 @@
         <v>3708</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -5700,13 +5688,13 @@
         <v>6644</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>311</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5709,13 @@
         <v>2099</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5736,13 +5724,13 @@
         <v>564</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5751,13 +5739,13 @@
         <v>2663</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5813,13 @@
         <v>66720</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
         <v>109</v>
@@ -5840,13 +5828,13 @@
         <v>79422</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>198</v>
@@ -5855,13 +5843,13 @@
         <v>146142</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5864,13 @@
         <v>67727</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -5891,13 +5879,13 @@
         <v>59220</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>179</v>
@@ -5906,13 +5894,13 @@
         <v>126947</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5915,13 @@
         <v>29387</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -5942,13 +5930,13 @@
         <v>20145</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M24" s="7">
         <v>69</v>
@@ -5957,13 +5945,13 @@
         <v>49532</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +5966,13 @@
         <v>2893</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5993,13 +5981,13 @@
         <v>3939</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -6008,13 +5996,13 @@
         <v>6832</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>105</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6017,13 @@
         <v>3152</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>343</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -6044,13 +6032,13 @@
         <v>2081</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -6059,13 +6047,13 @@
         <v>5233</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6121,13 @@
         <v>162189</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H28" s="7">
         <v>244</v>
@@ -6148,13 +6136,13 @@
         <v>174150</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M28" s="7">
         <v>469</v>
@@ -6163,13 +6151,13 @@
         <v>336340</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,13 +6172,13 @@
         <v>132586</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H29" s="7">
         <v>185</v>
@@ -6199,13 +6187,13 @@
         <v>129084</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M29" s="7">
         <v>366</v>
@@ -6214,13 +6202,13 @@
         <v>261671</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6223,13 @@
         <v>41921</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H30" s="7">
         <v>45</v>
@@ -6250,13 +6238,13 @@
         <v>29739</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M30" s="7">
         <v>102</v>
@@ -6265,13 +6253,13 @@
         <v>71660</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6274,13 @@
         <v>5830</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -6301,13 +6289,13 @@
         <v>7646</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>50</v>
+        <v>386</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -6316,13 +6304,13 @@
         <v>13476</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>135</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6325,13 @@
         <v>5251</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -6352,13 +6340,13 @@
         <v>2645</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>266</v>
+        <v>393</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M32" s="7">
         <v>11</v>
@@ -6367,13 +6355,13 @@
         <v>7896</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,7 +6417,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C18-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56950D5A-8FA4-487A-B366-539915C6CB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F40D503-FBB6-4198-96B9-B524E6D69961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03EFDF47-6845-4FC7-9C8B-D15F155FCD43}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1C37F825-6FF6-4B59-8F29-7B595E7C0D83}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="391">
   <si>
     <t>Menores según frecuencia de llevarse bien con los profesores en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1090 +94,1075 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
     <t>43,47%</t>
   </si>
   <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
   </si>
   <si>
     <t>45,22%</t>
   </si>
   <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
   </si>
   <si>
     <t>36,37%</t>
   </si>
   <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
   </si>
   <si>
     <t>37,63%</t>
   </si>
   <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
   </si>
   <si>
     <t>15,96%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
+    <t>4,42%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,29%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con los profesores en 2012 (Tasa respuesta: 43,54%)</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con los profesores en 2012 (Tasa respuesta: 43,54%)</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>Menores según frecuencia de llevarse bien con los profesores en 2016 (Tasa respuesta: 45,48%)</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
   </si>
   <si>
     <t>29,57%</t>
   </si>
   <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con los profesores en 2016 (Tasa respuesta: 45,48%)</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
+    <t>42,51%</t>
   </si>
   <si>
     <t>39,87%</t>
   </si>
   <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
     <t>33,37%</t>
   </si>
   <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
+    <t>41,97%</t>
   </si>
   <si>
     <t>38,12%</t>
   </si>
   <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
   </si>
   <si>
     <t>37,87%</t>
   </si>
   <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>10,37%</t>
@@ -1186,7 +1171,13 @@
     <t>8,48%</t>
   </si>
   <si>
-    <t>12,36%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -1195,37 +1186,31 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>3,29%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28576CE4-989D-46C7-A79D-9FE4D9D56262}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A9BE4F-9F36-4F66-9564-AAC0C8582857}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2299,10 +2284,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="7">
-        <v>53671</v>
+        <v>52683</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2314,10 +2299,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I16" s="7">
-        <v>52683</v>
+        <v>53671</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2350,10 +2335,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7">
-        <v>44910</v>
+        <v>43603</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2365,10 +2350,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I17" s="7">
-        <v>43603</v>
+        <v>44910</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2401,10 +2386,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>19706</v>
+        <v>12764</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2416,10 +2401,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I18" s="7">
-        <v>12764</v>
+        <v>19706</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2455,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>1514</v>
+        <v>1207</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2470,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>1207</v>
+        <v>1514</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2503,31 +2488,31 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>3680</v>
+        <v>1453</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>6</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3680</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1453</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>57</v>
@@ -2554,25 +2539,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111711</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="7">
         <v>186</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>123481</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="7">
-        <v>168</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>61</v>
@@ -2607,10 +2592,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>55800</v>
+        <v>67613</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>63</v>
@@ -2622,10 +2607,10 @@
         <v>65</v>
       </c>
       <c r="H22" s="7">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I22" s="7">
-        <v>67613</v>
+        <v>55800</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>66</v>
@@ -2658,10 +2643,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D23" s="7">
-        <v>76034</v>
+        <v>70710</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>72</v>
@@ -2673,19 +2658,19 @@
         <v>74</v>
       </c>
       <c r="H23" s="7">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I23" s="7">
-        <v>70710</v>
+        <v>76034</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M23" s="7">
         <v>217</v>
@@ -2694,13 +2679,13 @@
         <v>146744</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,34 +2694,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D24" s="7">
+        <v>29762</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="7">
+        <v>61</v>
+      </c>
+      <c r="I24" s="7">
         <v>40028</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="7">
-        <v>44</v>
-      </c>
-      <c r="I24" s="7">
-        <v>29762</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>105</v>
@@ -2745,13 +2730,13 @@
         <v>69790</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,34 +2745,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
+        <v>2077</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="7">
+        <v>11</v>
+      </c>
+      <c r="I25" s="7">
         <v>7468</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2077</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -2796,13 +2781,13 @@
         <v>9546</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,34 +2796,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>11</v>
+      </c>
+      <c r="D26" s="7">
+        <v>7501</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="7">
         <v>8</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>5328</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="7">
-        <v>11</v>
-      </c>
-      <c r="I26" s="7">
-        <v>7501</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -2847,10 +2832,10 @@
         <v>12829</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>105</v>
@@ -2862,25 +2847,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>262</v>
+      </c>
+      <c r="D27" s="7">
+        <v>177663</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
         <v>278</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>184658</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="7">
-        <v>262</v>
-      </c>
-      <c r="I27" s="7">
-        <v>177663</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>61</v>
@@ -2915,10 +2900,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D28" s="7">
-        <v>109471</v>
+        <v>120296</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>106</v>
@@ -2930,10 +2915,10 @@
         <v>108</v>
       </c>
       <c r="H28" s="7">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="I28" s="7">
-        <v>120296</v>
+        <v>109471</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>109</v>
@@ -2966,10 +2951,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D29" s="7">
-        <v>120944</v>
+        <v>114313</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>115</v>
@@ -2981,10 +2966,10 @@
         <v>117</v>
       </c>
       <c r="H29" s="7">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="I29" s="7">
-        <v>114313</v>
+        <v>120944</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>118</v>
@@ -3017,10 +3002,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D30" s="7">
-        <v>59733</v>
+        <v>42526</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>124</v>
@@ -3032,10 +3017,10 @@
         <v>126</v>
       </c>
       <c r="H30" s="7">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="I30" s="7">
-        <v>42526</v>
+        <v>59733</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>127</v>
@@ -3068,10 +3053,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D31" s="7">
-        <v>8983</v>
+        <v>3285</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>133</v>
@@ -3083,10 +3068,10 @@
         <v>135</v>
       </c>
       <c r="H31" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I31" s="7">
-        <v>3285</v>
+        <v>8983</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>136</v>
@@ -3107,10 +3092,10 @@
         <v>139</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,34 +3104,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>13</v>
+      </c>
+      <c r="D32" s="7">
+        <v>8954</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="7">
         <v>14</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>9008</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H32" s="7">
-        <v>13</v>
-      </c>
-      <c r="I32" s="7">
-        <v>8954</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M32" s="7">
         <v>27</v>
@@ -3155,13 +3140,13 @@
         <v>17962</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,25 +3155,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>430</v>
+      </c>
+      <c r="D33" s="7">
+        <v>289374</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>464</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>308139</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="7">
-        <v>430</v>
-      </c>
-      <c r="I33" s="7">
-        <v>289374</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>61</v>
@@ -3217,7 +3202,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3237,7 +3222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0FBB8F-DDD6-4D6F-BF82-E07692CA2A8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873A65E9-EEC1-4691-9B6D-C78A05692D8F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3254,7 +3239,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3899,34 +3884,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>135</v>
+      </c>
+      <c r="D16" s="7">
+        <v>94985</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="7">
         <v>133</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>92579</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="7">
-        <v>135</v>
-      </c>
-      <c r="I16" s="7">
-        <v>94985</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>268</v>
@@ -3935,13 +3920,13 @@
         <v>187563</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,34 +3935,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>55</v>
+      </c>
+      <c r="D17" s="7">
+        <v>38873</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="7">
         <v>60</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>41730</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="7">
-        <v>55</v>
-      </c>
-      <c r="I17" s="7">
-        <v>38873</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -3986,13 +3971,13 @@
         <v>80604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,34 +3986,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10621</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="7">
         <v>17</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>11809</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H18" s="7">
-        <v>16</v>
-      </c>
-      <c r="I18" s="7">
-        <v>10621</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -4037,13 +4022,13 @@
         <v>22430</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,31 +4040,31 @@
         <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>2797</v>
+        <v>2884</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>2884</v>
+        <v>2797</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4088,13 +4073,13 @@
         <v>5681</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4088,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>4262</v>
+        <v>1947</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>186</v>
@@ -4118,19 +4103,19 @@
         <v>187</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>1947</v>
+        <v>4262</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>188</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -4142,10 +4127,10 @@
         <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,25 +4139,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>213</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149309</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="7">
         <v>220</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>153178</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="7">
-        <v>213</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149309</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>61</v>
@@ -4207,34 +4192,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>111</v>
+      </c>
+      <c r="D22" s="7">
+        <v>79636</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" s="7">
         <v>113</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>75985</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H22" s="7">
-        <v>111</v>
-      </c>
-      <c r="I22" s="7">
-        <v>79636</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M22" s="7">
         <v>224</v>
@@ -4243,13 +4228,13 @@
         <v>155622</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,34 +4243,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>80</v>
+      </c>
+      <c r="D23" s="7">
+        <v>54975</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H23" s="7">
         <v>103</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>70993</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H23" s="7">
-        <v>80</v>
-      </c>
-      <c r="I23" s="7">
-        <v>54975</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M23" s="7">
         <v>183</v>
@@ -4294,13 +4279,13 @@
         <v>125968</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,10 +4294,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7">
-        <v>16918</v>
+        <v>20190</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>209</v>
@@ -4324,10 +4309,10 @@
         <v>211</v>
       </c>
       <c r="H24" s="7">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I24" s="7">
-        <v>20190</v>
+        <v>16918</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>212</v>
@@ -4360,10 +4345,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>3578</v>
+        <v>2652</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>218</v>
@@ -4375,10 +4360,10 @@
         <v>220</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>2652</v>
+        <v>3578</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>221</v>
@@ -4387,7 +4372,7 @@
         <v>222</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4411,34 +4396,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26" s="7">
-        <v>3177</v>
+        <v>4757</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>226</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>5</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3177</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H26" s="7">
-        <v>7</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4757</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="K26" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -4447,13 +4432,13 @@
         <v>7934</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,25 +4447,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
         <v>251</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170651</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="7">
-        <v>230</v>
-      </c>
-      <c r="I27" s="7">
-        <v>162209</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>61</v>
@@ -4518,31 +4503,31 @@
         <v>246</v>
       </c>
       <c r="D28" s="7">
-        <v>168564</v>
+        <v>174620</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H28" s="7">
         <v>246</v>
       </c>
       <c r="I28" s="7">
-        <v>174620</v>
+        <v>168564</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M28" s="7">
         <v>492</v>
@@ -4551,13 +4536,13 @@
         <v>343184</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,34 +4551,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>135</v>
+      </c>
+      <c r="D29" s="7">
+        <v>93848</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H29" s="7">
         <v>163</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>112723</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H29" s="7">
-        <v>135</v>
-      </c>
-      <c r="I29" s="7">
-        <v>93848</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>249</v>
+        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>298</v>
@@ -4602,13 +4587,13 @@
         <v>206571</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,34 +4602,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>45</v>
+      </c>
+      <c r="D30" s="7">
+        <v>30811</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H30" s="7">
         <v>41</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>28727</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H30" s="7">
-        <v>45</v>
-      </c>
-      <c r="I30" s="7">
-        <v>30811</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M30" s="7">
         <v>86</v>
@@ -4653,13 +4638,13 @@
         <v>59538</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,34 +4653,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5536</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H31" s="7">
         <v>10</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>6376</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="J31" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H31" s="7">
-        <v>7</v>
-      </c>
-      <c r="I31" s="7">
-        <v>5536</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M31" s="7">
         <v>17</v>
@@ -4707,10 +4692,10 @@
         <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,34 +4704,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="7">
+        <v>6703</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H32" s="7">
+        <v>11</v>
+      </c>
+      <c r="I32" s="7">
         <v>7439</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="J32" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H32" s="7">
-        <v>10</v>
-      </c>
-      <c r="I32" s="7">
-        <v>6703</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -4755,13 +4740,13 @@
         <v>14143</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,25 +4755,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>443</v>
+      </c>
+      <c r="D33" s="7">
+        <v>311518</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>471</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>323829</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="7">
-        <v>443</v>
-      </c>
-      <c r="I33" s="7">
-        <v>311518</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>61</v>
@@ -4817,7 +4802,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4837,7 +4822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436E386C-1145-4D06-82FF-32647DF40959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9C879F-FE7D-41E2-A873-540912796B66}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4854,7 +4839,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5499,34 +5484,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>135</v>
+      </c>
+      <c r="D16" s="7">
+        <v>94728</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H16" s="7">
         <v>136</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>95469</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H16" s="7">
-        <v>135</v>
-      </c>
-      <c r="I16" s="7">
-        <v>94728</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M16" s="7">
         <v>271</v>
@@ -5535,13 +5520,13 @@
         <v>190197</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,34 +5535,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>99</v>
+      </c>
+      <c r="D17" s="7">
+        <v>69865</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H17" s="7">
         <v>88</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>64859</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H17" s="7">
-        <v>99</v>
-      </c>
-      <c r="I17" s="7">
-        <v>69865</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -5586,13 +5571,13 @@
         <v>134724</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,34 +5586,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9595</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H18" s="7">
         <v>18</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>12533</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H18" s="7">
-        <v>15</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9595</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -5637,13 +5622,13 @@
         <v>22128</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,34 +5637,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3708</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H19" s="7">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>2937</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3708</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>134</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -5688,13 +5673,13 @@
         <v>6644</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,34 +5688,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>564</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>2099</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>564</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5739,13 +5724,13 @@
         <v>2663</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,25 +5739,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>255</v>
+      </c>
+      <c r="D21" s="7">
+        <v>178459</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="7">
         <v>249</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>177898</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="7">
-        <v>255</v>
-      </c>
-      <c r="I21" s="7">
-        <v>178459</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>61</v>
@@ -5807,34 +5792,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>109</v>
+      </c>
+      <c r="D22" s="7">
+        <v>79422</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H22" s="7">
         <v>89</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>66720</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="H22" s="7">
-        <v>109</v>
-      </c>
-      <c r="I22" s="7">
-        <v>79422</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>198</v>
@@ -5843,13 +5828,13 @@
         <v>146142</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,34 +5843,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>86</v>
+      </c>
+      <c r="D23" s="7">
+        <v>59220</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H23" s="7">
         <v>93</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>67727</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H23" s="7">
-        <v>86</v>
-      </c>
-      <c r="I23" s="7">
-        <v>59220</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>179</v>
@@ -5894,13 +5879,13 @@
         <v>126947</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,34 +5894,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7">
+        <v>20145</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H24" s="7">
         <v>39</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>29387</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H24" s="7">
-        <v>30</v>
-      </c>
-      <c r="I24" s="7">
-        <v>20145</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M24" s="7">
         <v>69</v>
@@ -5945,13 +5930,13 @@
         <v>49532</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,34 +5945,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3939</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2893</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3939</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -5996,13 +5981,13 @@
         <v>6832</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,34 +5996,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2081</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H26" s="7">
         <v>4</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>3152</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2081</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>228</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -6047,13 +6032,13 @@
         <v>5233</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,25 +6047,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
         <v>229</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>169879</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164807</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>61</v>
@@ -6115,34 +6100,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>244</v>
+      </c>
+      <c r="D28" s="7">
+        <v>174150</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H28" s="7">
         <v>225</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>162189</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H28" s="7">
-        <v>244</v>
-      </c>
-      <c r="I28" s="7">
-        <v>174150</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M28" s="7">
         <v>469</v>
@@ -6151,13 +6136,13 @@
         <v>336340</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,34 +6151,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>185</v>
+      </c>
+      <c r="D29" s="7">
+        <v>129084</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H29" s="7">
         <v>181</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>132586</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H29" s="7">
-        <v>185</v>
-      </c>
-      <c r="I29" s="7">
-        <v>129084</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M29" s="7">
         <v>366</v>
@@ -6202,13 +6187,13 @@
         <v>261671</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,34 +6202,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>45</v>
+      </c>
+      <c r="D30" s="7">
+        <v>29739</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H30" s="7">
         <v>57</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>41921</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H30" s="7">
-        <v>45</v>
-      </c>
-      <c r="I30" s="7">
-        <v>29739</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M30" s="7">
         <v>102</v>
@@ -6253,13 +6238,13 @@
         <v>71660</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,34 +6253,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7">
+        <v>7646</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H31" s="7">
         <v>8</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>5830</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="H31" s="7">
-        <v>11</v>
-      </c>
-      <c r="I31" s="7">
-        <v>7646</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>273</v>
+        <v>380</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>269</v>
+        <v>382</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -6304,13 +6289,13 @@
         <v>13476</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>388</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>389</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,34 +6304,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2645</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H32" s="7">
         <v>7</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>5251</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H32" s="7">
-        <v>4</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2645</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>395</v>
+        <v>142</v>
       </c>
       <c r="M32" s="7">
         <v>11</v>
@@ -6355,13 +6340,13 @@
         <v>7896</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,25 +6355,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>489</v>
+      </c>
+      <c r="D33" s="7">
+        <v>343266</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>478</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>347776</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="7">
-        <v>489</v>
-      </c>
-      <c r="I33" s="7">
-        <v>343266</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>61</v>
@@ -6417,7 +6402,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
